--- a/ecs-study/CodePipeline.xlsx
+++ b/ecs-study/CodePipeline.xlsx
@@ -4,83 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="23715" windowHeight="10305" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="23715" windowHeight="10305" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="1.S3" sheetId="2" r:id="rId1"/>
-    <sheet name="2.1. spring boot 用 image push" sheetId="4" r:id="rId2"/>
-    <sheet name="2. CodeBuild-server" sheetId="3" r:id="rId3"/>
-    <sheet name="x. CodePipeline" sheetId="1" r:id="rId4"/>
+    <sheet name="目次" sheetId="6" r:id="rId1"/>
+    <sheet name="1" sheetId="7" r:id="rId2"/>
+    <sheet name="2" sheetId="8" r:id="rId3"/>
+    <sheet name="3" sheetId="9" r:id="rId4"/>
+    <sheet name="4" sheetId="10" r:id="rId5"/>
+    <sheet name="5" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>※ github と連携もできるが、したくなかったので今は S3</t>
-    <rPh sb="10" eb="12">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>イマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>S3 に必要なファイルを用意する</t>
-    <rPh sb="4" eb="6">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヨウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>← 開発コードがある S3 を指定</t>
-    <rPh sb="2" eb="4">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※ CodeBuild 用の buildspec.yaml も必要</t>
-    <rPh sb="12" eb="13">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Java (server 側) 用なので Java 使えればなんでも良いはず。</t>
-    <rPh sb="13" eb="14">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一旦スキップしてみる。</t>
-    <rPh sb="0" eb="2">
-      <t>イッタン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>※ CodePipeline で使う場合はバージョニングをする必要がある。(変更したら Pipeline が走る仕組みは、このバージョンを利用していると思う)</t>
     <rPh sb="16" eb="17">
@@ -139,84 +78,400 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>と思ったら spring boot 2.x 系ではそうもいかない。</t>
-    <rPh sb="1" eb="2">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://qiita.com/akikinyan/items/2ff72cf1129b66304616</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. リポジトリ作成</t>
-    <rPh sb="8" eb="10">
+    <t>CodePipeline を用いて以下の手順で Build する</t>
+    <rPh sb="14" eb="15">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【server】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. ECR に CodeBuild で gradle build を実施するための docker image を登録する</t>
+    <rPh sb="35" eb="37">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. EC2 にログインする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. Docker をインストールする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. Dockerfile を作成する</t>
+    <rPh sb="15" eb="17">
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2. ec2 起動</t>
-    <rPh sb="7" eb="9">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3. ec2 上で「aws configure」コマンドを実施し、AccessKey/SecretAccessKey を設定</t>
+    <t>5. ECR 上に、リポジトリを作成する</t>
     <rPh sb="7" eb="8">
       <t>ジョウ</t>
     </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6. EC2 上で、以下のマニュアルを元に、docker build ～ docker push まで実施する</t>
+    <rPh sb="7" eb="8">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ⇒ server-build/Dockerfile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ⇒ docker-study の手順を参考</t>
+    <rPh sb="19" eb="21">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4. docker engine 起動 (sudo service docker start)</t>
+    <rPh sb="17" eb="19">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. S3 に server build 用ファイルを用意する</t>
+    <rPh sb="21" eb="22">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. プロジェクトを作成する (gradle プロジェクトでの REST サーブレットシステムを今回は作成)</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. buildspec.yml を作成する</t>
+    <rPh sb="18" eb="20">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ⇒ server-build/buildspec.yml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. CodeBuild を作成する</t>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ GitHub と連携して、そこから取得とか、</t>
+    <rPh sb="10" eb="12">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   MavenCentral から取得とか、</t>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   色々方法はあるが、準備がめんどいので S3 で今回は行っている。</t>
+    <rPh sb="3" eb="5">
+      <t>イロイロ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>独自 image を用いる場合は、チェックつけても無駄なのでチェックつけない。</t>
+    <rPh sb="0" eb="2">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ムダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ CodeBuild で提供している docker image 以外では、docker engine が起動しないらしい。</t>
+    <rPh sb="13" eb="15">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ECR から PULL できる権限を Attach する必要があるので</t>
+    <rPh sb="15" eb="17">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IAM ロール名を覚えておくこと。</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回は、ルート直下に buildspec.yml を用意しているのでこのままで OK</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョッカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. 「1」・「2」をまとめて ZIP に固める。</t>
+    <rPh sb="21" eb="22">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4. S3 に配置する。</t>
+    <rPh sb="7" eb="9">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. CodeBuild の IAM ロールに ECR から docker image を PULL するための Policy を Attack する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. ECR 側でも、アクセス許可の編集を行う。</t>
+    <rPh sb="7" eb="8">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CodeBuild からという意味</t>
+    <rPh sb="15" eb="17">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ECR PULL Policy を Attack した IAM ロール名</t>
+    <rPh sb="35" eb="36">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>許可する操作</t>
+    <rPh sb="0" eb="2">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ Image PULL 関連のアクション</t>
+    <rPh sb="13" eb="15">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ ここで設定したアクセス許可内容取得アクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だと思う。</t>
+    <rPh sb="2" eb="3">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ ここで CodeBuild 単体での動作が可能</t>
+    <rPh sb="16" eb="18">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4. CodePipeline を作成する</t>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. CodePipeline を作成する</t>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ github とか、maven central とか色々できるけど、今回は S3</t>
+    <rPh sb="28" eb="30">
+      <t>イロイロ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>コンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ これまでの手順で作成した CodeBuild 名を指定</t>
+    <rPh sb="7" eb="9">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここではスキップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ ここで CodePipeline 経由で Server Build まで動作が可能</t>
+    <rPh sb="19" eb="21">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5. DockerImage 作成用の CodeBuild を作成する</t>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. GradleBuild 用の CodeBuild を作成する</t>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
     <rPh sb="29" eb="31">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4. プッシュコマンドの表示ボタンを押下し、指示に従う</t>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シジ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>シタガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>↓に変更</t>
-    <rPh sb="2" eb="4">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※ https://qiita.com/akikinyan/items/2ff72cf1129b66304616 に従って spring boot gradle build 用 ECR を作成した。</t>
-    <rPh sb="58" eb="59">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>← フォルダとかではダメ、ZIP でとりあえずやってみる。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -300,20 +555,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>106605</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 3"/>
+        <xdr:cNvPr id="3073" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -327,8 +582,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="190500" y="476250"/>
-          <a:ext cx="7572375" cy="2868855"/>
+          <a:off x="200025" y="1371600"/>
+          <a:ext cx="8067675" cy="6191250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -345,22 +600,74 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3038475" y="1200150"/>
+          <a:ext cx="5638800" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>311774</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5121" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -374,8 +681,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6629400" y="3800475"/>
-          <a:ext cx="5638800" cy="1828800"/>
+          <a:off x="371475" y="3552825"/>
+          <a:ext cx="8369924" cy="2733675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -392,27 +699,74 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5122" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="504825" y="7153275"/>
+          <a:ext cx="11925300" cy="5000625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4097" name="Picture 1"/>
+        <xdr:cNvPr id="6145" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -426,8 +780,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="304800" y="409575"/>
-          <a:ext cx="13916025" cy="3952875"/>
+          <a:off x="352425" y="371475"/>
+          <a:ext cx="8248650" cy="5324475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -447,19 +801,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4098" name="Picture 2"/>
+        <xdr:cNvPr id="6146" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -473,8 +827,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="428625" y="5724525"/>
-          <a:ext cx="8620125" cy="6353175"/>
+          <a:off x="447675" y="5857875"/>
+          <a:ext cx="7743825" cy="3429000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -491,27 +845,591 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6147" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="428625" y="9391650"/>
+          <a:ext cx="7705725" cy="8191500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="866776" y="17421226"/>
+          <a:ext cx="1219199" cy="504824"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6148" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="438150" y="18754725"/>
+          <a:ext cx="7724775" cy="2686050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5829301" y="20240625"/>
+          <a:ext cx="3086099" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6149" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="361950" y="21688425"/>
+          <a:ext cx="7867650" cy="5886450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3981451" y="23079076"/>
+          <a:ext cx="5067299" cy="609599"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6151" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="438150" y="28041600"/>
+          <a:ext cx="11630025" cy="6686550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6152" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="495300" y="35052000"/>
+          <a:ext cx="8058150" cy="6105525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6154" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="428625" y="41452800"/>
+          <a:ext cx="7877175" cy="4467225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7620001" y="39681151"/>
+          <a:ext cx="1457324" cy="219074"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7600950" y="42319575"/>
+          <a:ext cx="1457324" cy="219074"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7124700" y="44929425"/>
+          <a:ext cx="1762125" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3077" name="Picture 5"/>
+        <xdr:cNvPr id="7169" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -525,8 +1443,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="200025" y="152400"/>
-          <a:ext cx="7867650" cy="4600575"/>
+          <a:off x="419100" y="342900"/>
+          <a:ext cx="10020300" cy="7400925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -546,19 +1464,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3078" name="Picture 6"/>
+        <xdr:cNvPr id="7170" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -572,8 +1490,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="200025" y="5029200"/>
-          <a:ext cx="7972425" cy="3676650"/>
+          <a:off x="381000" y="7924800"/>
+          <a:ext cx="7591425" cy="6305550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -593,19 +1511,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3079" name="Picture 7"/>
+        <xdr:cNvPr id="7171" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -619,8 +1537,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="200025" y="8839200"/>
-          <a:ext cx="7820025" cy="8001000"/>
+          <a:off x="381000" y="14973300"/>
+          <a:ext cx="7848600" cy="5181600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -640,19 +1558,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3080" name="Picture 8"/>
+        <xdr:cNvPr id="7172" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -666,342 +1584,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="200025" y="17068800"/>
-          <a:ext cx="7848600" cy="6496050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8401050" y="9839325"/>
-          <a:ext cx="7877175" cy="7562850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>192073</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="200025" y="171450"/>
-          <a:ext cx="7050073" cy="4591050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>114766</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="190500" y="5019676"/>
-          <a:ext cx="7048500" cy="5458290"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1028" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="180975" y="11049000"/>
-          <a:ext cx="7667625" cy="5553075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1029" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="152400" y="18621375"/>
-          <a:ext cx="7667625" cy="3876675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1030" name="Picture 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="333375" y="7981950"/>
-          <a:ext cx="5267325" cy="809625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1031" name="Picture 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8562975" y="10325100"/>
-          <a:ext cx="5619750" cy="7067550"/>
+          <a:off x="438150" y="20631150"/>
+          <a:ext cx="10058400" cy="4410075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1306,7 +1890,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B28"/>
+  <dimension ref="B2:B13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:B10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:B44"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -1318,27 +2028,42 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="1" t="s">
-        <v>8</v>
+    <row r="8" spans="2:2">
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1348,9 +2073,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B81"/>
+  <dimension ref="B2:O299"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -1362,42 +2087,103 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="15:15">
+      <c r="O44" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="15:15">
+      <c r="O45" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="15:15">
+      <c r="O46" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="5:5">
+      <c r="E119" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="5:5">
+      <c r="E120" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="15:15">
+      <c r="O136" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="15:15">
+      <c r="O137" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="15:15">
+      <c r="O156" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="262" spans="15:15">
+      <c r="O262" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="280" spans="15:15">
+      <c r="O280" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="296" spans="15:15">
+      <c r="O296" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="297" spans="15:15">
+      <c r="O297" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="298" spans="15:15">
+      <c r="O298" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="299" spans="15:15">
+      <c r="O299" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="N61:N64"/>
+  <dimension ref="B2:C166"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -1405,24 +2191,29 @@
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="61" spans="14:14">
-      <c r="N61" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="14:14">
-      <c r="N62" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="14:14">
-      <c r="N63" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="14:14">
-      <c r="N64" s="2" t="s">
-        <v>15</v>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3">
+      <c r="C134" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3">
+      <c r="C166" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1432,9 +2223,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="M36:N123"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1443,31 +2234,8 @@
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData>
-    <row r="36" spans="13:13">
-      <c r="M36" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="13:13">
-      <c r="M37" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="13:13">
-      <c r="M56" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="123" spans="14:14">
-      <c r="N123" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ecs-study/CodePipeline.xlsx
+++ b/ecs-study/CodePipeline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="23715" windowHeight="10305" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="23715" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="6" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="3" sheetId="9" r:id="rId4"/>
     <sheet name="4" sheetId="10" r:id="rId5"/>
     <sheet name="5" sheetId="11" r:id="rId6"/>
+    <sheet name="6" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>※ CodePipeline で使う場合はバージョニングをする必要がある。(変更したら Pipeline が走る仕組みは、このバージョンを利用していると思う)</t>
     <rPh sb="16" eb="17">
@@ -471,6 +472,236 @@
     </rPh>
     <rPh sb="29" eb="31">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. CodeBuild を作成する</t>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ GradleBuild 用の CodeBuild 後につなげる予定なので、本 CodeBuild 単体でも動作できるように</t>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   S3 に jar ファイルを用意した。</t>
+    <rPh sb="17" eb="19">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DockerEngine を用いる場合は必ず CodeBuild で提供されている Image を使用すること。</t>
+    <rPh sb="14" eb="15">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ECR Push 用の Policy を Attach する必要があるので覚えておくこと。</t>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じく、ルートディレクトリに buildspec.yaml を用意するのでこれで OK</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ プライマリとしては buildspec.yml を含む zip を指定する。</t>
+    <rPh sb="27" eb="28">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Push する ECR を環境変数で指す仕組みにしているので ECR もあらかじめ作っておくこと。</t>
+    <rPh sb="13" eb="15">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. CodeBuild の IAM ロールに ECR Push 用 Policy を Attach する。</t>
+    <rPh sb="33" eb="34">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ Policy を Attach する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ ECR のアクセス許可を編集する。</t>
+    <rPh sb="11" eb="13">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ ここで CodeBuild 単体での動作が可能</t>
+    <rPh sb="16" eb="18">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6. 「4」と「5」を組み合わせる</t>
+    <rPh sb="11" eb="12">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. CodePipeline を編集する。</t>
+    <rPh sb="17" eb="19">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ CreateImageSource アクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ CreateImage アクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「5」で作成した CodeBuild</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CreateImageSource を Primary (buildspec.yml があるほうを primary) に指定</t>
+    <rPh sb="60" eb="62">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Build アクションで作成した成果物 (jar) も取得する</t>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>セイカブツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CreateImage 用 Source アクション追加</t>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Build 後に CreateImage ステージ追加</t>
+    <rPh sb="6" eb="7">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ ここで CodePipeline 経由で Server Build ～ 試験 Docker Image ECR Push までが可能</t>
+    <rPh sb="19" eb="21">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1600,6 +1831,1144 @@
         <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="200025" y="304800"/>
+          <a:ext cx="8086725" cy="5286375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="285750" y="10591800"/>
+          <a:ext cx="7896225" cy="8048625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3962401" y="11868150"/>
+          <a:ext cx="4991099" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5734051" y="16659225"/>
+          <a:ext cx="3381374" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="314325" y="18840450"/>
+          <a:ext cx="7772400" cy="5915025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3733800" y="20145375"/>
+          <a:ext cx="5200650" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="190500" y="5657850"/>
+          <a:ext cx="7715250" cy="7915275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1031" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8582025" y="6886575"/>
+          <a:ext cx="9391650" cy="3952875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1032" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8343900" y="24412575"/>
+          <a:ext cx="7924800" cy="3419475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1033" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="238125" y="22831425"/>
+          <a:ext cx="7972425" cy="5734050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4076701" y="23726775"/>
+          <a:ext cx="4857749" cy="1885950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>345</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1035" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="542925" y="42595800"/>
+          <a:ext cx="7715250" cy="7677150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1039" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="704850" y="35899725"/>
+          <a:ext cx="9667875" cy="8115300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1040" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="571500" y="52978050"/>
+          <a:ext cx="7915275" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3074" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="200025" y="4000500"/>
+          <a:ext cx="6019800" cy="7915275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3076" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="171450" y="12468225"/>
+          <a:ext cx="6000750" cy="8524875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4019550" y="14830425"/>
+          <a:ext cx="3019425" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4476751" y="17602200"/>
+          <a:ext cx="2438399" cy="523876"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4505325" y="17135475"/>
+          <a:ext cx="2286000" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4362451" y="18326100"/>
+          <a:ext cx="2476499" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3077" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="257175" y="457200"/>
+          <a:ext cx="10287000" cy="3305175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4981575" y="1476375"/>
+          <a:ext cx="5924550" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>103211</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3078" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="219076" y="12201525"/>
+          <a:ext cx="8313760" cy="4143375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5343525" y="14277975"/>
+          <a:ext cx="3629025" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1890,11 +3259,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B13"/>
+  <dimension ref="B2:B16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -1942,9 +3309,24 @@
         <v>43</v>
       </c>
     </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2018,7 +3400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B44"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -2077,7 +3459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O299"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A262" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -2225,17 +3607,142 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:O294"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="14:14">
+      <c r="N41" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="14:14">
+      <c r="N42" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="14:14">
+      <c r="N44" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="113" spans="15:15">
+      <c r="O113" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="142" spans="15:15">
+      <c r="O142" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="156" spans="15:15">
+      <c r="O156" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="157" spans="15:15">
+      <c r="O157" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="202" spans="15:15">
+      <c r="O202" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3">
+      <c r="B233" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3">
+      <c r="C235" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="294" spans="3:3">
+      <c r="C294" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:R151"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18">
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="R10" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="94" spans="15:15">
+      <c r="O94" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="129" spans="12:12">
+      <c r="L129" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="146" spans="12:12">
+      <c r="L146" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="151" spans="12:12">
+      <c r="L151" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ecs-study/CodePipeline.xlsx
+++ b/ecs-study/CodePipeline.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>※ CodePipeline で使う場合はバージョニングをする必要がある。(変更したら Pipeline が走る仕組みは、このバージョンを利用していると思う)</t>
     <rPh sb="16" eb="17">
@@ -693,15 +693,52 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※ ここで CodePipeline 経由で Server Build ～ 試験 Docker Image ECR Push までが可能</t>
+    <t>※ ここで CodePipeline 経由で Server Build ～ Tomcat Docker Image ECR Push までが可能</t>
     <rPh sb="19" eb="21">
       <t>ケイユ</t>
     </rPh>
-    <rPh sb="38" eb="40">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="66" eb="68">
+    <rPh sb="70" eb="72">
       <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ EC2 インスタンス上で、ECR より docker pull し、container 上で以下コールできる。</t>
+    <rPh sb="12" eb="13">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt; http://localhost:8080/ecs-system/app/ecs-server</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>War ファイルなどでも、さらに zip 化しないといけない点に注意</t>
+    <rPh sb="21" eb="22">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ しなければ、war が解凍されたものが Source として送られる。</t>
+    <rPh sb="13" eb="15">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2494,6 +2531,100 @@
         <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="200025" y="8791575"/>
+          <a:ext cx="6153150" cy="3543300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5553076" y="12030075"/>
+          <a:ext cx="3457574" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3259,7 +3390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B16"/>
+  <dimension ref="B2:B19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3327,6 +3458,16 @@
     <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3637,6 +3778,16 @@
         <v>52</v>
       </c>
     </row>
+    <row r="83" spans="15:15">
+      <c r="O83" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="15:15">
+      <c r="O84" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="113" spans="15:15">
       <c r="O113" s="2" t="s">
         <v>49</v>

--- a/ecs-study/CodePipeline.xlsx
+++ b/ecs-study/CodePipeline.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>※ CodePipeline で使う場合はバージョニングをする必要がある。(変更したら Pipeline が走る仕組みは、このバージョンを利用していると思う)</t>
     <rPh sb="16" eb="17">
@@ -739,6 +739,19 @@
     </rPh>
     <rPh sb="32" eb="33">
       <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7. 1～6 の UI 版実施(いろいろ割愛)</t>
+    <rPh sb="12" eb="13">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カツアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3390,7 +3403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B19"/>
+  <dimension ref="B2:B21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3468,6 +3481,11 @@
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/ecs-study/CodePipeline.xlsx
+++ b/ecs-study/CodePipeline.xlsx
@@ -14,13 +14,14 @@
     <sheet name="4" sheetId="10" r:id="rId5"/>
     <sheet name="5" sheetId="11" r:id="rId6"/>
     <sheet name="6" sheetId="12" r:id="rId7"/>
+    <sheet name="8" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t>※ CodePipeline で使う場合はバージョニングをする必要がある。(変更したら Pipeline が走る仕組みは、このバージョンを利用していると思う)</t>
     <rPh sb="16" eb="17">
@@ -753,6 +754,104 @@
     <rPh sb="20" eb="22">
       <t>カツアイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8. 連携する</t>
+    <rPh sb="3" eb="5">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. tomcat/apache の docker image を aws 上から pull する</t>
+    <rPh sb="38" eb="39">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   &gt; $(aws ecr get-login --region ap-northeast-1 --no-include-email)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   &gt; docker pull &lt;イメージID&gt;:&lt;タグ&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. apache の image を起動する</t>
+    <rPh sb="19" eb="21">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ※ ホストOS と同じ iptable を使用する。</t>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. tomcat の image を起動する</t>
+    <rPh sb="19" eb="21">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   &gt; docker run -itd -p 8081:8080 &lt;イメージID&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ※ ↑ポートでの連携をベースに apache で proxypass している。</t>
+    <rPh sb="11" eb="13">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4. EC2 で 801 ポートをインバウンドする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5. 以下の URL にアクセスしてレスポンスが返却されれば OK</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注: apache の httpd.conf で proxypass をさせるため色々 mod_proxy 関連を include している。</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イロイロ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注: 443 するには証明書が必要ぽいので、httpd.conf で 801 を Listen させている。</t>
+    <rPh sb="11" eb="14">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   &gt; docker run -itd --net=host &lt;イメージID&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3403,7 +3502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B21"/>
+  <dimension ref="B2:B23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3486,6 +3585,11 @@
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3914,4 +4018,88 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:B20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ecs-study/CodePipeline.xlsx
+++ b/ecs-study/CodePipeline.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>※ CodePipeline で使う場合はバージョニングをする必要がある。(変更したら Pipeline が走る仕組みは、このバージョンを利用していると思う)</t>
     <rPh sb="16" eb="17">
@@ -852,6 +852,17 @@
   </si>
   <si>
     <t xml:space="preserve">   &gt; docker run -itd --net=host &lt;イメージID&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   例: http://ec2-13-113-237-49.ap-northeast-1.compute.amazonaws.com:801/app/ecs-server</t>
+    <rPh sb="3" eb="4">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   &gt; http://&lt;ec2 public dns&gt;:801/app/ecs-server</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4022,7 +4033,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B20"/>
+  <dimension ref="B2:B21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4087,13 +4098,23 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="1" t="s">
-        <v>85</v>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="1" t="s">
         <v>86</v>
       </c>
     </row>

--- a/ecs-study/CodePipeline.xlsx
+++ b/ecs-study/CodePipeline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="23715" windowHeight="10305"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="23715" windowHeight="10305" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>※ CodePipeline で使う場合はバージョニングをする必要がある。(変更したら Pipeline が走る仕組みは、このバージョンを利用していると思う)</t>
     <rPh sb="16" eb="17">
@@ -851,10 +851,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">   &gt; docker run -itd --net=host &lt;イメージID&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">   例: http://ec2-13-113-237-49.ap-northeast-1.compute.amazonaws.com:801/app/ecs-server</t>
     <rPh sb="3" eb="4">
       <t>レイ</t>
@@ -863,6 +859,18 @@
   </si>
   <si>
     <t xml:space="preserve">   &gt; http://&lt;ec2 public dns&gt;:801/app/ecs-server</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt; http://localhost:801/view/index.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   &gt; http://&lt;ec2 public dns&gt;:801/view/index.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   &gt; docker run -itd --net=host &lt;イメージID&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3513,9 +3521,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B23"/>
+  <dimension ref="B2:B24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -3593,13 +3601,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="1" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4033,9 +4046,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B21"/>
+  <dimension ref="B2:B23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -4065,7 +4080,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -4100,21 +4115,31 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="1" t="s">
+    <row r="23" spans="2:2">
+      <c r="B23" s="1" t="s">
         <v>86</v>
       </c>
     </row>

--- a/ecs-study/CodePipeline.xlsx
+++ b/ecs-study/CodePipeline.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t>※ CodePipeline で使う場合はバージョニングをする必要がある。(変更したら Pipeline が走る仕組みは、このバージョンを利用していると思う)</t>
     <rPh sb="16" eb="17">
@@ -866,11 +866,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t xml:space="preserve">   &gt; docker run -itd --net=host &lt;イメージID&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t xml:space="preserve">   &gt; http://&lt;ec2 public dns&gt;:801/view/index.html</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">   &gt; docker run -itd --net=host &lt;イメージID&gt;</t>
+    <t xml:space="preserve">   例: http://ec2-13-113-237-49.ap-northeast-1.compute.amazonaws.com:801/view/index.html</t>
+    <rPh sb="3" eb="4">
+      <t>レイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4048,9 +4055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -4080,7 +4085,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -4125,12 +4130,12 @@
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="2:2">

--- a/ecs-study/CodePipeline.xlsx
+++ b/ecs-study/CodePipeline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="23715" windowHeight="10305" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="23715" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="6" r:id="rId1"/>
@@ -15,13 +15,20 @@
     <sheet name="5" sheetId="11" r:id="rId6"/>
     <sheet name="6" sheetId="12" r:id="rId7"/>
     <sheet name="8" sheetId="13" r:id="rId8"/>
+    <sheet name="9" sheetId="14" r:id="rId9"/>
+    <sheet name="9-X1" sheetId="15" r:id="rId10"/>
+    <sheet name="9-X2" sheetId="16" r:id="rId11"/>
+    <sheet name="10" sheetId="17" r:id="rId12"/>
+    <sheet name="11" sheetId="18" r:id="rId13"/>
+    <sheet name="12" sheetId="19" r:id="rId14"/>
+    <sheet name="13" sheetId="20" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="152">
   <si>
     <t>※ CodePipeline で使う場合はバージョニングをする必要がある。(変更したら Pipeline が走る仕組みは、このバージョンを利用していると思う)</t>
     <rPh sb="16" eb="17">
@@ -757,13 +764,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>8. 連携する</t>
-    <rPh sb="3" eb="5">
-      <t>レンケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1. tomcat/apache の docker image を aws 上から pull する</t>
     <rPh sb="38" eb="39">
       <t>ジョウ</t>
@@ -877,6 +877,685 @@
     <t xml:space="preserve">   例: http://ec2-13-113-237-49.ap-northeast-1.compute.amazonaws.com:801/view/index.html</t>
     <rPh sb="3" eb="4">
       <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8. 連携する(手動)</t>
+    <rPh sb="3" eb="5">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9. ECS のため VPC 環境を構築する</t>
+    <rPh sb="15" eb="17">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[VPC]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. IPv4 CIRD ブロックを VPC に用意する</t>
+    <rPh sb="24" eb="26">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. AZ 別に、↑で設定したサブセットの Subnet ブロックを用意する</t>
+    <rPh sb="6" eb="7">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ※ public subnet ひとつでも OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ ↑の設定で、VPC/Subnet の他に、InternetGateway (VPC とネットワーク接続を行うために必要) と RouteTable (サブネットとVPC内での通信関連付け) と NetworkACL (Subnet へのネットワークアクセス制御) が作成される</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   また、NetworkACL の Inbound/Outbound Rule も外部と接続できるようデフォルトで設定されている。</t>
+    <rPh sb="42" eb="44">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[VPC 上に EC2 を立てる]</t>
+    <rPh sb="5" eb="6">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   9-X1(VPC 勉強-番外): VPC 上に EC2 を展開する</t>
+    <rPh sb="24" eb="25">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. EC2 を VPC 上の Subnet 内に作成する</t>
+    <rPh sb="13" eb="14">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. セキュリティグループで以下を設定する</t>
+    <rPh sb="14" eb="16">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ SSH はグローバル、HTTP は ALB 経由でのみ許可する設定</t>
+    <rPh sb="24" eb="26">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. PublicIP アドレスから SSH 接続できることを確認する</t>
+    <rPh sb="23" eb="25">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4. ALB 経由で HTTP アクセスするために nginx をインストール/起動する</t>
+    <rPh sb="7" eb="9">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt; sudo yum update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ subnet 用の RouteTable も作成済みであり、かつ、VPC にアタッチされている InternetGatewat にアタッチされている必要がある。でなければ、その Subnet に外部からアクセスできない。</t>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt; sudo amazon-linux-extras install nginx1.12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt; ps aux | grep nginx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&gt; sudo service nginx start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ インスタンス起動時に自動起動する場合は -&gt; sudo chkconfig nginx on</t>
+    <rPh sb="8" eb="10">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5. PublicIP アドレスから HTTP 接続できないことを確認する</t>
+    <rPh sb="24" eb="26">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   &gt; http://{publicIP}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. ELB を作成する</t>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[VPC 用の ELB を作成する]</t>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ 最低 2 つの Subnet が必要なので新規に Subnet を追加した。(Subent を作成し、VPC にアタッチし、Subnet 用 RouteTable を作成し、VPC の InternetGateway にアタッチした)</t>
+    <rPh sb="2" eb="4">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ ヘルスチェックの設定。EC2 へ HTTP リクエストを飛ばすことで確認したいので↑の通り。</t>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ インスタンスからヘルスチェックを飛ばすインスタンスを選択し「登録済みに追加」する。</t>
+    <rPh sb="18" eb="19">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ ELB 用のセキュリティグループを作成</t>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. status が Active になった後 (ヘルスチェックが通った後) に DNS 名をコピーし、アクセスする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ EC2 の PublicIP から到達できず、かつ、ELB 経由からのアクセスに成功することを確認できれば OK</t>
+    <rPh sb="19" eb="21">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ↓が表示されれば OK</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   9-X2(VPC 勉強-番外): VPC 用の ELB を作成する</t>
+    <rPh sb="24" eb="25">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. ECS クラスタを作成する</t>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ 9-X1 で作成した VPC</t>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ 9-X2 で作成した ELB 用のセキュリティグループを割り当てる</t>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ IAM は自動で作成する</t>
+    <rPh sb="7" eb="9">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10. ECS クラスタを作成する</t>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. ↑で作成が完了すると、ECS クラスタ用の EC2 インスタンスが作成される。(VPC/セキュリティグループは指定されたものが割り当てられる)</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11. タスク定義を登録する</t>
+    <rPh sb="7" eb="9">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. タスク定義を登録する</t>
+    <rPh sb="6" eb="8">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. ↑で作成した後に↓が表示されること</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12. ECS 上へタスク定義を登録する (サービスを登録する)</t>
+    <rPh sb="8" eb="9">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. サービスを作成する</t>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここは自動で作成</t>
+    <rPh sb="3" eb="5">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成済みの ELB を設定</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成済みの ELB Target Group を設定</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ 80 ポートでのヘルスチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. ↑で作成した後、↓で Task が実行され Active になるのを待つ</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ノチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. ELB 経由で 80 ポートにて、Server Docker Container に対しアクセスしてみる。</t>
+    <rPh sb="7" eb="9">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ 9X-1 で作成した EC2 に割り当てたセキュリティグループ</t>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   (VPC に割り当てたものでない点に注意)</t>
+    <rPh sb="9" eb="10">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI の ECR URI を設定する</t>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ ←図はまちがい</t>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>80 -&gt; 80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> のポートフォワードをする</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13. 稼働した EC2 インスタンスに対し ELB のターゲットグループを設定する</t>
+    <rPh sb="4" eb="6">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. ELB のターゲットグループに、ECS コンテナ用 EC2 を設定</t>
+    <rPh sb="27" eb="28">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. healty になったことを確認し、ELB の DNS 名を元にアクセス</t>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ UI 用の Docker Image が Run されて Apache が稼働していることのみの確認になってしまっている。</t>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   (apache の設定で 801 ポートでアクセスしないと UI 表示できないようになっており、色々設定しなおすのがめんどいので、ELB -&gt; ECS コンテナ(EC2) -&gt; Docker Container が通ったことで OK にしている)</t>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>イロイロ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>トオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -885,7 +1564,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -915,6 +1594,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -924,11 +1609,20 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -938,7 +1632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,6 +1640,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1009,6 +1709,1154 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5121" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="876300" y="361950"/>
+          <a:ext cx="9124950" cy="4619625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5122" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="819150" y="4876800"/>
+          <a:ext cx="8458200" cy="4876800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5123" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="876300" y="9591675"/>
+          <a:ext cx="8305800" cy="5772150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5124" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="714375" y="15001875"/>
+          <a:ext cx="8439150" cy="4095750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5125" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="438150" y="20212050"/>
+          <a:ext cx="11039475" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6148" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="361950" y="7820025"/>
+          <a:ext cx="8305800" cy="6638925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6145" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="533400" y="409575"/>
+          <a:ext cx="8829675" cy="5114925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6146" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="400050" y="5686425"/>
+          <a:ext cx="8724900" cy="2133600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1609725" y="6667501"/>
+          <a:ext cx="209550" cy="1247774"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5924551" y="9686925"/>
+          <a:ext cx="3190874" cy="57150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5086350" y="13306425"/>
+          <a:ext cx="3752850" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6149" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="390525" y="15259050"/>
+          <a:ext cx="11077575" cy="3248025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7169" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="285750" y="400050"/>
+          <a:ext cx="11410950" cy="5343525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="647700" y="4762500"/>
+          <a:ext cx="209550" cy="1247774"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7170" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="381000" y="6057900"/>
+          <a:ext cx="8943975" cy="6781800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7171" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="381000" y="13239750"/>
+          <a:ext cx="9296400" cy="7286625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6181725" y="18221325"/>
+          <a:ext cx="3638550" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5353050" y="18669000"/>
+          <a:ext cx="4429125" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7172" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="400050" y="19373850"/>
+          <a:ext cx="8734425" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5105401" y="20659725"/>
+          <a:ext cx="4667249" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7173" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="504825" y="25765125"/>
+          <a:ext cx="10848975" cy="5343525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9217" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="552450" y="371475"/>
+          <a:ext cx="10944225" cy="5857875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9218" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="7058025"/>
+          <a:ext cx="10848975" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9219" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="590550" y="8572500"/>
+          <a:ext cx="10115550" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3238,6 +5086,726 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>470492</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="838200"/>
+          <a:ext cx="7604717" cy="2943225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2051" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="485775" y="4629150"/>
+          <a:ext cx="11344275" cy="5562600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6877050" y="4514850"/>
+          <a:ext cx="1343025" cy="5343525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>62817</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="914400" y="638175"/>
+          <a:ext cx="7229475" cy="4758642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3074" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="828675" y="5886450"/>
+          <a:ext cx="11715750" cy="2343150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>65281</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3075" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10239375" y="7724775"/>
+          <a:ext cx="257175" cy="112906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3076" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2838450" y="11610975"/>
+          <a:ext cx="7534275" cy="6705600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>65281</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10239375" y="7724775"/>
+          <a:ext cx="257175" cy="112906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>653815</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="561975" y="571500"/>
+          <a:ext cx="6464065" cy="5753100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1133475" y="5953125"/>
+          <a:ext cx="3429000" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4098" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="628650" y="11296650"/>
+          <a:ext cx="9010650" cy="5734050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4101" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="485775" y="17811750"/>
+          <a:ext cx="13087350" cy="5210175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4102" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="419100" y="6886575"/>
+          <a:ext cx="13230225" cy="3438525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4103" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="561975" y="24222075"/>
+          <a:ext cx="10706100" cy="5238750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4104" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="409575" y="30708600"/>
+          <a:ext cx="12601575" cy="3933825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3528,7 +6096,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B24"/>
+  <dimension ref="B2:K37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:C74"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="C56" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:C201"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3540,92 +6350,296 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="2"/>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3">
+      <c r="C154" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3">
+      <c r="B199" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C199" s="2"/>
+    </row>
+    <row r="200" spans="2:3">
+      <c r="B200" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3">
+      <c r="B201" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:P130"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="P97" sqref="P97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="73" spans="16:16">
+      <c r="P73" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="16:16">
+      <c r="P74" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="16:16">
+      <c r="P95" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="16:16">
+      <c r="P96" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="16:16">
+      <c r="P106" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:P106"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="64" spans="15:15">
+      <c r="O64" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="16:16">
+      <c r="P73" s="2"/>
+    </row>
+    <row r="74" spans="16:16">
+      <c r="P74" s="2"/>
+    </row>
+    <row r="88" spans="15:15">
+      <c r="O88" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="15:15">
+      <c r="O89" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16">
+      <c r="B98" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="2:16">
+      <c r="P106" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:P207"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B208" sqref="B208"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="73" spans="16:16">
+      <c r="P73" s="2"/>
+    </row>
+    <row r="74" spans="16:16">
+      <c r="P74" s="2"/>
+    </row>
+    <row r="106" spans="16:16">
+      <c r="P106" s="4"/>
+    </row>
+    <row r="120" spans="16:16">
+      <c r="P120" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="123" spans="16:16">
+      <c r="P123" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="16:16">
+      <c r="P136" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="16:16">
+      <c r="P137" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:P106"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="3:16">
+      <c r="C68" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="3:16">
+      <c r="C69" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="3:16">
+      <c r="P73" s="2"/>
+    </row>
+    <row r="74" spans="3:16">
+      <c r="P74" s="2"/>
+    </row>
+    <row r="106" spans="16:16">
+      <c r="P106" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4055,7 +7069,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -4065,87 +7081,87 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4153,4 +7169,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:B29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/ecs-study/CodePipeline.xlsx
+++ b/ecs-study/CodePipeline.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="154">
   <si>
     <t>※ CodePipeline で使う場合はバージョニングをする必要がある。(変更したら Pipeline が走る仕組みは、このバージョンを利用していると思う)</t>
     <rPh sb="16" eb="17">
@@ -1416,16 +1416,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3. ELB 経由で 80 ポートにて、Server Docker Container に対しアクセスしてみる。</t>
-    <rPh sb="7" eb="9">
-      <t>ケイユ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>タイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※ 9X-1 で作成した EC2 に割り当てたセキュリティグループ</t>
     <rPh sb="8" eb="10">
       <t>サクセイ</t>
@@ -1451,13 +1441,6 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UI の ECR URI を設定する</t>
-    <rPh sb="14" eb="16">
-      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1559,12 +1542,71 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ここまでで ELB -&gt; VPC の接続が確認できたことになる。</t>
+    <rPh sb="18" eb="20">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> の ECR URI を設定する</t>
+    </r>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ ←図はまちがい。UI の ECR URI を ECR からコピーして貼り付ける。</t>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12 シートで追加したサービスを稼働している EC2</t>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1596,6 +1638,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1632,7 +1682,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1646,6 +1696,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2854,6 +2907,53 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11134726" y="2352675"/>
+          <a:ext cx="609599" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5364,53 +5464,6 @@
         <a:xfrm>
           <a:off x="10239375" y="7724775"/>
           <a:ext cx="257175" cy="112906"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3076" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2838450" y="11610975"/>
-          <a:ext cx="7534275" cy="6705600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6235,7 +6288,7 @@
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -6248,9 +6301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C74"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -6338,7 +6389,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C201"/>
+  <dimension ref="B2:C230"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6397,6 +6448,11 @@
         <v>123</v>
       </c>
     </row>
+    <row r="230" spans="2:2">
+      <c r="B230" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6409,9 +6465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P130"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="P97" sqref="P97"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -6439,12 +6493,12 @@
     </row>
     <row r="95" spans="16:16">
       <c r="P95" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="16:16">
+      <c r="P96" s="5" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="96" spans="16:16">
-      <c r="P96" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="106" spans="16:16">
@@ -6487,23 +6541,28 @@
     </row>
     <row r="64" spans="15:15">
       <c r="O64" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="73" spans="16:16">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="15:16">
+      <c r="O65" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="15:16">
       <c r="P73" s="2"/>
     </row>
-    <row r="74" spans="16:16">
+    <row r="74" spans="15:16">
       <c r="P74" s="2"/>
     </row>
     <row r="88" spans="15:15">
       <c r="O88" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="15:15">
       <c r="O89" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="2:16">
@@ -6524,76 +6583,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:P207"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="73" spans="16:16">
-      <c r="P73" s="2"/>
-    </row>
-    <row r="74" spans="16:16">
-      <c r="P74" s="2"/>
-    </row>
-    <row r="106" spans="16:16">
-      <c r="P106" s="4"/>
-    </row>
-    <row r="120" spans="16:16">
-      <c r="P120" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="123" spans="16:16">
-      <c r="P123" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="136" spans="16:16">
-      <c r="P136" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="137" spans="16:16">
-      <c r="P137" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2">
-      <c r="B167" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="207" spans="2:2">
-      <c r="B207" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:P106"/>
+  <dimension ref="B2:P167"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6605,25 +6595,92 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="2"/>
     </row>
+    <row r="73" spans="16:16">
+      <c r="P73" s="2"/>
+    </row>
+    <row r="74" spans="16:16">
+      <c r="P74" s="2"/>
+    </row>
+    <row r="106" spans="16:16">
+      <c r="P106" s="4"/>
+    </row>
+    <row r="120" spans="16:16">
+      <c r="P120" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="123" spans="16:16">
+      <c r="P123" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="16:16">
+      <c r="P136" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="16:16">
+      <c r="P137" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:S106"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19">
+      <c r="B2" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="S16" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="2"/>
+    </row>
     <row r="45" spans="2:2">
       <c r="B45" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="3:16">
       <c r="C68" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="3:16">
       <c r="C69" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="3:16">

--- a/ecs-study/CodePipeline.xlsx
+++ b/ecs-study/CodePipeline.xlsx
@@ -6704,9 +6704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -6765,7 +6763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -6824,7 +6822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O299"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A262" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -6928,9 +6926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C166"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -7126,9 +7122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
